--- a/shared_build.xlsx
+++ b/shared_build.xlsx
@@ -11,18 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>solar_satellite</t>
   </si>
   <si>
     <t>SolarSatellite</t>
-  </si>
-  <si>
-    <t>solar_plant</t>
-  </si>
-  <si>
-    <t>SolarPlant</t>
   </si>
   <si>
     <t>metal_mine</t>
@@ -112,13 +106,13 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -127,22 +121,22 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,9 +152,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,7 +184,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -206,19 +197,19 @@
       <c r="B4" s="2">
         <v>24.0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>29.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -226,7 +217,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -237,142 +228,142 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>25.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>27.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>26.0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>28.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>27.0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>32.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>15</v>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -380,21 +371,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
         <v>28.0</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/shared_build.xlsx
+++ b/shared_build.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>nanite_factory</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>SolarPlant</t>
-  </si>
-  <si>
-    <t>metal_storage</t>
-  </si>
-  <si>
-    <t>MetalStorage</t>
   </si>
 </sst>
 </file>
@@ -354,81 +348,64 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>11</v>
+        <v>32.0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>7</v>
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
